--- a/biology/Médecine/Éminence_frontale/Éminence_frontale.xlsx
+++ b/biology/Médecine/Éminence_frontale/Éminence_frontale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89minence_frontale</t>
+          <t>Éminence_frontale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éminences frontales (ou bosses frontales latérales) sont les deux élévations arrondies situées sur le face externe de l'écaille de l'os frontal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89minence_frontale</t>
+          <t>Éminence_frontale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éminences frontales se trouvent à environ 3 cm au-dessus des arcades sourcilières de chaque côté de la suture métopique.
-Elles sont le site d'ossification de l'os frontal au cours du développement embryologique, bien qu'il ne s'agisse pas du premier site[1].
+Elles sont le site d'ossification de l'os frontal au cours du développement embryologique, bien qu'il ne s'agisse pas du premier site.
 Les éminences frontales varient en taille selon les individus. Elles sont parfois asymétriques et sont particulièrement proéminentes chez les jeunes.
 </t>
         </is>
